--- a/data/trans_orig/IPAQ_DICO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_DICO-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>84352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67213</v>
+        <v>68875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102178</v>
+        <v>101021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1118214394320272</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08910025288592807</v>
+        <v>0.09130376674456887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1354517903403136</v>
+        <v>0.1339185775327671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -763,19 +763,19 @@
         <v>29491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20118</v>
+        <v>19550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43884</v>
+        <v>39101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02964883514127455</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0202259400441513</v>
+        <v>0.01965489872400364</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04411932216761322</v>
+        <v>0.03931078225882131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -784,19 +784,19 @@
         <v>113843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95214</v>
+        <v>94531</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135038</v>
+        <v>136836</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06508988313160255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05443907519465015</v>
+        <v>0.05404809842387596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07720811318145086</v>
+        <v>0.07823616597645716</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>669995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>652169</v>
+        <v>653326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687134</v>
+        <v>685472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8881785605679728</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8645482096596865</v>
+        <v>0.866081422467233</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.910899747114072</v>
+        <v>0.9086962332554311</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>862</v>
@@ -834,19 +834,19 @@
         <v>965169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>950776</v>
+        <v>955559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>974542</v>
+        <v>975110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9703511648587254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9558806778323867</v>
+        <v>0.9606892177411788</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9797740599558485</v>
+        <v>0.9803451012759964</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1543</v>
@@ -855,19 +855,19 @@
         <v>1635164</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1613969</v>
+        <v>1612171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1653793</v>
+        <v>1654476</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9349101168683974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9227918868185492</v>
+        <v>0.9217638340235428</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9455609248053498</v>
+        <v>0.9459519015761241</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>302894</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>273798</v>
+        <v>272618</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>340247</v>
+        <v>334741</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1458754877165978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1318628702584482</v>
+        <v>0.1312945946507304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1638649360232134</v>
+        <v>0.1612132638053343</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -980,19 +980,19 @@
         <v>128610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109219</v>
+        <v>107244</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>153297</v>
+        <v>151001</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06468320276757369</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05493095040649474</v>
+        <v>0.05393768488282852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0770995721319828</v>
+        <v>0.07594481357976092</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>413</v>
@@ -1001,19 +1001,19 @@
         <v>431503</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>394314</v>
+        <v>391694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>472389</v>
+        <v>472076</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1061590953707151</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09700979726543663</v>
+        <v>0.09636506444932498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1162177456706863</v>
+        <v>0.1161409591745015</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1773491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1736138</v>
+        <v>1741644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1802587</v>
+        <v>1803767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8541245122834021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8361350639767869</v>
+        <v>0.8387867361946657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8681371297415519</v>
+        <v>0.8687054053492697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1782</v>
@@ -1051,19 +1051,19 @@
         <v>1859690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1835003</v>
+        <v>1837299</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1879081</v>
+        <v>1881056</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9353167972324263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.922900427868017</v>
+        <v>0.9240551864202391</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9450690495935051</v>
+        <v>0.9460623151171714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3447</v>
@@ -1072,19 +1072,19 @@
         <v>3633182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3592296</v>
+        <v>3592609</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3670371</v>
+        <v>3672991</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8938409046292849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8837822543293137</v>
+        <v>0.8838590408254985</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9029902027345633</v>
+        <v>0.903634935550675</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>85383</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70518</v>
+        <v>68432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104728</v>
+        <v>104811</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1561264323141593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1289437761925641</v>
+        <v>0.1251297313519563</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.191498663380287</v>
+        <v>0.1916503626355724</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1197,19 +1197,19 @@
         <v>35847</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25705</v>
+        <v>25379</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49431</v>
+        <v>49574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06527921470385606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04681011593890491</v>
+        <v>0.04621647144242723</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09001563754425246</v>
+        <v>0.09027492949944281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1218,19 +1218,19 @@
         <v>121231</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100897</v>
+        <v>101084</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144428</v>
+        <v>143295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1106094030372185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09205673117804596</v>
+        <v>0.09222787588597813</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1317742093656905</v>
+        <v>0.130740241198164</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>461503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>442158</v>
+        <v>442075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>476368</v>
+        <v>478454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8438735676858407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8085013366197131</v>
+        <v>0.8083496373644277</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8710562238074362</v>
+        <v>0.874870268648044</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>493</v>
@@ -1268,19 +1268,19 @@
         <v>513293</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>499709</v>
+        <v>499566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>523435</v>
+        <v>523761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.934720785296144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9099843624557473</v>
+        <v>0.9097250705005572</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9531898840610948</v>
+        <v>0.9537835285575728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>916</v>
@@ -1289,19 +1289,19 @@
         <v>974796</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>951599</v>
+        <v>952732</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>995130</v>
+        <v>994943</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8893905969627814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8682257906343099</v>
+        <v>0.869259758801836</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9079432688219542</v>
+        <v>0.907772124114022</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>472629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>431031</v>
+        <v>434225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>515370</v>
+        <v>515851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1399297407737214</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1276138332865754</v>
+        <v>0.1285593896969547</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1525838872726661</v>
+        <v>0.152726372408647</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -1414,19 +1414,19 @@
         <v>193948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>169409</v>
+        <v>166810</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>224225</v>
+        <v>224458</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05490998261173342</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04796275523206555</v>
+        <v>0.04722678841932622</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06348194187752458</v>
+        <v>0.06354801355365945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>635</v>
@@ -1435,19 +1435,19 @@
         <v>666577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>617706</v>
+        <v>615781</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>720290</v>
+        <v>719033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09646945560393609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08939667709420888</v>
+        <v>0.0891181271395383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1042430650739516</v>
+        <v>0.1040610833820099</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2904989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2862248</v>
+        <v>2861767</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2946587</v>
+        <v>2943393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8600702592262786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8474161127273339</v>
+        <v>0.8472736275913534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8723861667134246</v>
+        <v>0.8714406103030454</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3137</v>
@@ -1485,19 +1485,19 @@
         <v>3338152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3307875</v>
+        <v>3307642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3362691</v>
+        <v>3365290</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9450900173882666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9365180581224755</v>
+        <v>0.9364519864463405</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9520372447679344</v>
+        <v>0.9527732115806737</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5906</v>
@@ -1506,19 +1506,19 @@
         <v>6243141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6189428</v>
+        <v>6190685</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6292012</v>
+        <v>6293937</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.903530544396064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8957569349260484</v>
+        <v>0.8959389166179901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.910603322905791</v>
+        <v>0.9108818728604617</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>80623</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65837</v>
+        <v>64962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96937</v>
+        <v>98048</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1393592851339616</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1138002403988463</v>
+        <v>0.1122875440052264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1675579196475687</v>
+        <v>0.169478001297765</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -1870,19 +1870,19 @@
         <v>70026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57881</v>
+        <v>58060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82219</v>
+        <v>83124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08518542583993083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07041202680867632</v>
+        <v>0.07062908980056783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1000187425814585</v>
+        <v>0.101118952026051</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>204</v>
@@ -1891,19 +1891,19 @@
         <v>150649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129403</v>
+        <v>131820</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171579</v>
+        <v>173544</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1075629092705507</v>
+        <v>0.1075629092705506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09239311334926385</v>
+        <v>0.09411875768834937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.122506489907212</v>
+        <v>0.1239096278018327</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>497906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>481592</v>
+        <v>480481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>512692</v>
+        <v>513567</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8606407148660384</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8324420803524315</v>
+        <v>0.8305219987022352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8861997596011536</v>
+        <v>0.8877124559947736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1310</v>
@@ -1941,19 +1941,19 @@
         <v>752012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>739819</v>
+        <v>738914</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>764157</v>
+        <v>763978</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9148145741600692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8999812574185415</v>
+        <v>0.898881047973949</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9295879731913238</v>
+        <v>0.929370910199432</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1914</v>
@@ -1962,19 +1962,19 @@
         <v>1249918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1228988</v>
+        <v>1227023</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1271164</v>
+        <v>1268747</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8924370907294495</v>
+        <v>0.8924370907294493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8774935100927879</v>
+        <v>0.8760903721981677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9076068866507362</v>
+        <v>0.9058812423116507</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>632586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>580487</v>
+        <v>585367</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>685419</v>
+        <v>684948</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2835987391093563</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2602419772353753</v>
+        <v>0.2624298022024092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3072847925300082</v>
+        <v>0.3070734346238052</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>585</v>
@@ -2087,19 +2087,19 @@
         <v>407119</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>373399</v>
+        <v>376466</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>440713</v>
+        <v>444011</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1874921979219122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1719627480282804</v>
+        <v>0.1733753369862505</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2029632475742207</v>
+        <v>0.2044821729380747</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1122</v>
@@ -2108,19 +2108,19 @@
         <v>1039705</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>979542</v>
+        <v>979968</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1103106</v>
+        <v>1100477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2361914343765242</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2225241898108088</v>
+        <v>0.2226208548308874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2505943899457202</v>
+        <v>0.2499971257024522</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1597980</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1545147</v>
+        <v>1545618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1650079</v>
+        <v>1645199</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7164012608906437</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6927152074699918</v>
+        <v>0.6929265653761949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.739758022764625</v>
+        <v>0.7375701977975907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2336</v>
@@ -2158,19 +2158,19 @@
         <v>1764273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1730679</v>
+        <v>1727381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1797993</v>
+        <v>1794926</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8125078020780879</v>
+        <v>0.8125078020780877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7970367524257789</v>
+        <v>0.7955178270619255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8280372519717194</v>
+        <v>0.8266246630137494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3791</v>
@@ -2179,19 +2179,19 @@
         <v>3362254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3298853</v>
+        <v>3301482</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3422417</v>
+        <v>3421991</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7638085656234758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7494056100542797</v>
+        <v>0.750002874297548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7774758101891913</v>
+        <v>0.7773791451691127</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>239373</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211137</v>
+        <v>211824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>266012</v>
+        <v>268394</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3363927551805124</v>
+        <v>0.3363927551805123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2967128278285454</v>
+        <v>0.2976785980264618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3738290371346102</v>
+        <v>0.3771772873641595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>262</v>
@@ -2304,19 +2304,19 @@
         <v>179110</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158604</v>
+        <v>160626</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201787</v>
+        <v>201232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2437275970061428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2158234448650792</v>
+        <v>0.2185753902576377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2745854800799283</v>
+        <v>0.2738305044359075</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>488</v>
@@ -2325,19 +2325,19 @@
         <v>418483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>383665</v>
+        <v>386828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>454306</v>
+        <v>455752</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2893141519211886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2652433440978861</v>
+        <v>0.2674300607779561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3140803814017204</v>
+        <v>0.3150803106185502</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>472214</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445575</v>
+        <v>443193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>500450</v>
+        <v>499763</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6636072448194877</v>
+        <v>0.6636072448194876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6261709628653899</v>
+        <v>0.6228227126358405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7032871721714545</v>
+        <v>0.702321401973538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>742</v>
@@ -2375,19 +2375,19 @@
         <v>555767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>533090</v>
+        <v>533645</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>576273</v>
+        <v>574251</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.756272402993857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7254145199200718</v>
+        <v>0.7261694955640927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7841765551349209</v>
+        <v>0.7814246097423626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1197</v>
@@ -2396,19 +2396,19 @@
         <v>1027981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>992158</v>
+        <v>990712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1062799</v>
+        <v>1059636</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7106858480788114</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6859196185982797</v>
+        <v>0.6849196893814499</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7347566559021138</v>
+        <v>0.7325699392220441</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>952582</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>886734</v>
+        <v>891043</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1009889</v>
+        <v>1008192</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2705673948964303</v>
+        <v>0.2705673948964304</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2518641267361643</v>
+        <v>0.2530881308074612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.28684454762967</v>
+        <v>0.2863625364555581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>964</v>
@@ -2521,19 +2521,19 @@
         <v>656255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>617285</v>
+        <v>612085</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>701376</v>
+        <v>697348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1760194517610352</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1655672037541143</v>
+        <v>0.1641724798798388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1881217203699813</v>
+        <v>0.1870413780125326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1814</v>
@@ -2542,19 +2542,19 @@
         <v>1608837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1546542</v>
+        <v>1531343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1685599</v>
+        <v>1685532</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2219394093663301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2133458574021937</v>
+        <v>0.2112491758178091</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2325288295673406</v>
+        <v>0.2325195689949192</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>2568101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2510794</v>
+        <v>2512491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2633949</v>
+        <v>2629640</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7294326051035697</v>
+        <v>0.7294326051035696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7131554523703302</v>
+        <v>0.713637463544442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7481358732638359</v>
+        <v>0.7469118691925388</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4388</v>
@@ -2592,19 +2592,19 @@
         <v>3072052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3026931</v>
+        <v>3030959</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3111022</v>
+        <v>3116222</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8239805482389648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8118782796300189</v>
+        <v>0.8129586219874678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8344327962458858</v>
+        <v>0.8358275201201614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6902</v>
@@ -2613,19 +2613,19 @@
         <v>5640153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5563391</v>
+        <v>5563458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5702448</v>
+        <v>5717647</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7780605906336699</v>
+        <v>0.7780605906336698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7674711704326594</v>
+        <v>0.7674804310050807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7866541425978066</v>
+        <v>0.7887508241821909</v>
       </c>
     </row>
     <row r="15">
